--- a/Nouveau Feuille de calcul Microsoft Excel.xlsx
+++ b/Nouveau Feuille de calcul Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>asdasdacsdc</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>asdcascda</t>
+  </si>
+  <si>
+    <t>asdcasdcac</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <dimension ref="E6:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -362,6 +365,9 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="L11" t="s">
